--- a/_doc/Activities.xlsx
+++ b/_doc/Activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhuliyap\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\nhuliyap\Workspace_Windows_1\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF24046B-8BF9-4948-91C0-3DDB37BE50C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83364725-267D-459C-AF5F-961BDB2CD708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4CBB5BB3-31E4-4243-B2FA-77FDC4480608}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4CBB5BB3-31E4-4243-B2FA-77FDC4480608}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +368,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -393,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -760,7 +773,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -776,17 +789,17 @@
         <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -802,17 +815,17 @@
         <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -831,10 +844,10 @@
         <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -854,13 +867,13 @@
         <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -883,13 +896,10 @@
         <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -909,13 +919,13 @@
         <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -935,13 +945,13 @@
         <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -961,13 +971,16 @@
         <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -987,13 +1000,13 @@
         <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1266,29 +1279,28 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1422,29 +1434,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1467,14 +1479,14 @@
       <c r="F28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1493,14 +1505,12 @@
       <c r="F29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1521,7 +1531,7 @@
       <c r="F30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1547,7 +1557,7 @@
       <c r="F31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1573,7 +1583,7 @@
       <c r="F32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -1599,7 +1609,7 @@
       <c r="F33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -2090,8 +2100,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
-    <sortCondition ref="D2:D49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J49">
+    <sortCondition ref="D5:D49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
